--- a/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>213,31%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>54,87%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,89%</t>
+          <t>196,16%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,39</t>
+          <t>-1,44; 4,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 9,52</t>
+          <t>0,59; 10,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 3,79</t>
+          <t>2,36; 7,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,4; 539,77</t>
+          <t>-24,57; 160,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,01; 139,12</t>
+          <t>4,6; 141,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 167,86</t>
+          <t>53,0; 466,46</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,44%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,4%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,21%</t>
+          <t>59,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,01</t>
+          <t>1,01; 2,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,9</t>
+          <t>-0,1; 5,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,59</t>
+          <t>0,25; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,2; 149,43</t>
+          <t>40,56; 185,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 115,55</t>
+          <t>2,4; 204,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,44; 159,06</t>
+          <t>6,19; 132,99</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>129,74%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>-24,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>164,92%</t>
+          <t>70,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,5</t>
+          <t>0,18; 2,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 2,24</t>
+          <t>-4,09; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,51</t>
+          <t>-0,58; 2,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 496,01</t>
+          <t>2,28; 504,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,17; 83,77</t>
+          <t>-58,79; 46,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,61; 568,54</t>
+          <t>-41,77; 363,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,21</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>105,33%</t>
+          <t>85,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,08%</t>
+          <t>60,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>87,49%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,2</t>
+          <t>1,03; 2,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,35</t>
+          <t>0,42; 4,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,38</t>
+          <t>0,96; 2,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>55,88; 175,2</t>
+          <t>39,28; 149,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,71; 100,02</t>
+          <t>9,54; 135,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,99; 147,03</t>
+          <t>36,01; 163,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>101,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 4,17</t>
+          <t>1,03; 5,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 10,16</t>
+          <t>0,65; 10,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 160,27</t>
+          <t>18,91; 294,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 141,54</t>
+          <t>4,61; 135,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,97</t>
+          <t>0,8; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 5,24</t>
+          <t>-0,18; 5,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 185,52</t>
+          <t>31,61; 165,01</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,4; 204,4</t>
+          <t>1,09; 204,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>129,74%</t>
+          <t>158,92%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,56</t>
+          <t>0,38; 2,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 1,33</t>
+          <t>-4,09; 1,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 504,66</t>
+          <t>18,42; 584,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,79; 46,96</t>
+          <t>-59,09; 45,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>100,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,55</t>
+          <t>1,2; 2,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,9</t>
+          <t>0,62; 4,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,28; 149,2</t>
+          <t>56,21; 171,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,54; 135,16</t>
+          <t>14,11; 153,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_DEP-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,69</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>5,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>70,11%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>196,16%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>101,07%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>54,87%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>196,16%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,02; 10,85</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,36; 7,65</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,03; 5,71</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,65; 10,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 7,65</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>14,9; 155,47</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>53,0; 466,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>18,91; 294,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>4,61; 135,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>53,0; 466,46</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,76</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,51</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>63,3%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59,5%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>88,76%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>72,56%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>59,5%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,18; 4,75</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 2,84</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,8; 2,73</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 5,25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,84</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>19,98; 126,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 132,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>31,61; 165,01</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1,09; 204,84</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 132,99</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-0,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,33</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-17,84%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>70,94%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>158,92%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-24,62%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>70,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-3,74; 1,65</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,58; 2,1</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,38; 2,38</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 1,38</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 2,1</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-55,61; 50,37</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-41,77; 363,22</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>18,42; 584,54</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-59,09; 45,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-41,77; 363,22</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>1,86</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>2,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,88</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>59,48%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>87,49%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>100,96%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>60,28%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>87,49%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,67; 4,67</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 2,82</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,2; 2,64</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 4,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 2,82</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>27,45; 106,47</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>36,01; 163,91</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>56,21; 171,6</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 153,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>36,01; 163,91</t>
         </is>
       </c>
     </row>
